--- a/docs/画面項目定義書/login/login.xlsx
+++ b/docs/画面項目定義書/login/login.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\work\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po723\private_cloud\private-cloud\docs\画面項目定義書\login\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EFF382B-F2B3-4662-BE71-53D3CEB37CAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CB338E-E5EE-4924-A529-D64F7D288F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D5C0FF8B-188E-416F-8E83-FB552D8361D4}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{D5C0FF8B-188E-416F-8E83-FB552D8361D4}"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン" sheetId="1" r:id="rId1"/>
@@ -157,43 +157,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>上方が入力されているかをチェックし、入力されたユーザー名、メールアドレスとパスワードがエンティティ内に存在する場合、それぞれ利用者、管理者ダッシュボードに遷移させる</t>
-    <rPh sb="0" eb="2">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>ソンザイ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>シャ</t>
-    </rPh>
-    <rPh sb="66" eb="69">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="77" eb="79">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>asciiコード範囲の文字のみで構成されていること</t>
     <rPh sb="8" eb="10">
       <t>ハンイ</t>
@@ -203,6 +166,34 @@
     </rPh>
     <rPh sb="16" eb="18">
       <t>コウセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>上方が入力されているかをチェックし、入力されたユーザー名、メールアドレスとパスワードがエンティティ内に存在する場合、それぞれuser_dashboard、admin_dashboardに遷移させる</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -1157,7 +1148,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16D0D6EF-4038-413F-A2F1-0B97FD7B8E5A}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1330,7 +1323,7 @@
       </c>
       <c r="E12" s="29"/>
       <c r="F12" s="32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G12" s="36"/>
     </row>
@@ -1365,7 +1358,7 @@
       </c>
       <c r="E14" s="29"/>
       <c r="F14" s="32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G14" s="36"/>
     </row>
@@ -1383,7 +1376,7 @@
       <c r="E15" s="29"/>
       <c r="F15" s="32"/>
       <c r="G15" s="36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">

--- a/docs/画面項目定義書/login/login.xlsx
+++ b/docs/画面項目定義書/login/login.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po723\private_cloud\private-cloud\docs\画面項目定義書\login\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\Kamata-Cloud-Infrastructure\docs\画面項目定義書\login\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CB338E-E5EE-4924-A529-D64F7D288F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971F5EDA-817B-4FD4-BE89-E48AEF834C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{D5C0FF8B-188E-416F-8E83-FB552D8361D4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D5C0FF8B-188E-416F-8E83-FB552D8361D4}"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン" sheetId="1" r:id="rId1"/>
@@ -170,7 +170,7 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>上方が入力されているかをチェックし、入力されたユーザー名、メールアドレスとパスワードがエンティティ内に存在する場合、それぞれuser_dashboard、admin_dashboardに遷移させる</t>
+    <t>上方が入力されているかをチェックし、入力されたユーザー名、メールアドレスとパスワードがエンティティ内に存在する場合、値がisAdminに該当するならばadmin_dashboard、それ以外はuser_dashboardに遷移させる</t>
     <rPh sb="0" eb="2">
       <t>ジョウホウ</t>
     </rPh>
@@ -192,7 +192,16 @@
     <rPh sb="55" eb="57">
       <t>バアイ</t>
     </rPh>
+    <rPh sb="58" eb="59">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ガイトウ</t>
+    </rPh>
     <rPh sb="93" eb="95">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="111" eb="113">
       <t>センイ</t>
     </rPh>
     <phoneticPr fontId="4"/>
@@ -1148,21 +1157,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16D0D6EF-4038-413F-A2F1-0B97FD7B8E5A}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="F6" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="25.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.625" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.58203125" customWidth="1"/>
     <col min="7" max="7" width="37.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1173,7 +1182,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1182,7 +1191,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -1191,7 +1200,7 @@
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
     </row>
-    <row r="4" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1200,7 +1209,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="37" t="s">
         <v>1</v>
       </c>
@@ -1213,7 +1222,7 @@
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="39" t="s">
         <v>10</v>
       </c>
@@ -1226,7 +1235,7 @@
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2"/>
       <c r="B7" s="10"/>
       <c r="C7" s="2"/>
@@ -1235,7 +1244,7 @@
       <c r="F7" s="20"/>
       <c r="G7" s="33"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
@@ -1258,7 +1267,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5">
         <v>1</v>
       </c>
@@ -1275,7 +1284,7 @@
       <c r="F9" s="31"/>
       <c r="G9" s="35"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5">
         <v>2</v>
       </c>
@@ -1292,7 +1301,7 @@
       <c r="F10" s="31"/>
       <c r="G10" s="35"/>
     </row>
-    <row r="11" spans="1:7" ht="24" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5">
         <v>3</v>
       </c>
@@ -1308,7 +1317,7 @@
       </c>
       <c r="G11" s="36"/>
     </row>
-    <row r="12" spans="1:7" ht="24" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5">
         <v>4</v>
       </c>
@@ -1327,7 +1336,7 @@
       </c>
       <c r="G12" s="36"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="5">
         <v>5</v>
       </c>
@@ -1343,7 +1352,7 @@
       </c>
       <c r="G13" s="36"/>
     </row>
-    <row r="14" spans="1:7" ht="24" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="5">
         <v>6</v>
       </c>
@@ -1362,7 +1371,7 @@
       </c>
       <c r="G14" s="36"/>
     </row>
-    <row r="15" spans="1:7" ht="48" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" ht="60" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="5">
         <v>7</v>
       </c>
@@ -1379,7 +1388,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="5"/>
       <c r="B16" s="13"/>
       <c r="C16" s="17"/>
@@ -1388,7 +1397,7 @@
       <c r="F16" s="32"/>
       <c r="G16" s="36"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="6"/>
       <c r="B17" s="13"/>
       <c r="C17" s="17"/>
@@ -1397,7 +1406,7 @@
       <c r="F17" s="32"/>
       <c r="G17" s="36"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="5"/>
       <c r="B18" s="13"/>
       <c r="C18" s="17"/>
@@ -1406,7 +1415,7 @@
       <c r="F18" s="32"/>
       <c r="G18" s="36"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="6"/>
       <c r="B19" s="13"/>
       <c r="C19" s="17"/>
@@ -1415,7 +1424,7 @@
       <c r="F19" s="32"/>
       <c r="G19" s="36"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="6"/>
       <c r="B20" s="13"/>
       <c r="C20" s="17"/>
@@ -1424,7 +1433,7 @@
       <c r="F20" s="32"/>
       <c r="G20" s="36"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="6"/>
       <c r="B21" s="13"/>
       <c r="C21" s="17"/>
@@ -1433,7 +1442,7 @@
       <c r="F21" s="32"/>
       <c r="G21" s="36"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="6"/>
       <c r="B22" s="13"/>
       <c r="C22" s="17"/>
@@ -1442,7 +1451,7 @@
       <c r="F22" s="32"/>
       <c r="G22" s="36"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="6"/>
       <c r="B23" s="13"/>
       <c r="C23" s="17"/>
@@ -1451,7 +1460,7 @@
       <c r="F23" s="32"/>
       <c r="G23" s="36"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="6"/>
       <c r="B24" s="13"/>
       <c r="C24" s="17"/>
@@ -1460,7 +1469,7 @@
       <c r="F24" s="32"/>
       <c r="G24" s="36"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="6"/>
       <c r="B25" s="13"/>
       <c r="C25" s="17"/>
@@ -1469,7 +1478,7 @@
       <c r="F25" s="32"/>
       <c r="G25" s="36"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="6"/>
       <c r="B26" s="13"/>
       <c r="C26" s="17"/>
@@ -1478,7 +1487,7 @@
       <c r="F26" s="32"/>
       <c r="G26" s="36"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="6"/>
       <c r="B27" s="13"/>
       <c r="C27" s="17"/>
@@ -1487,7 +1496,7 @@
       <c r="F27" s="32"/>
       <c r="G27" s="36"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="6"/>
       <c r="B28" s="13"/>
       <c r="C28" s="17"/>
@@ -1496,7 +1505,7 @@
       <c r="F28" s="32"/>
       <c r="G28" s="36"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="6"/>
       <c r="B29" s="13"/>
       <c r="C29" s="17"/>
@@ -1505,7 +1514,7 @@
       <c r="F29" s="32"/>
       <c r="G29" s="36"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
